--- a/instance_generator/instances/instance_T100300/fragmentation/fragmentation_link3_request1600.xlsx
+++ b/instance_generator/instances/instance_T100300/fragmentation/fragmentation_link3_request1600.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.64</v>
+        <v>37.84</v>
       </c>
       <c r="C3" t="n">
         <v>3126</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41.76</v>
+        <v>43.28</v>
       </c>
       <c r="C4" t="n">
         <v>3126</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42.64</v>
+        <v>45.28</v>
       </c>
       <c r="C5" t="n">
         <v>3126</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.6</v>
+        <v>17.92</v>
       </c>
       <c r="C6" t="n">
         <v>6251</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.12</v>
+        <v>0.48</v>
       </c>
       <c r="C7" t="n">
         <v>6251</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.44</v>
+        <v>6.08</v>
       </c>
       <c r="C8" t="n">
         <v>6251</v>
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.48</v>
+        <v>26.72</v>
       </c>
       <c r="C9" t="n">
-        <v>6251</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="10">
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.64</v>
+        <v>9.84</v>
       </c>
       <c r="C10" t="n">
         <v>9376</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.36</v>
+        <v>6.96</v>
       </c>
       <c r="C11" t="n">
         <v>9376</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.16</v>
+        <v>18.88</v>
       </c>
       <c r="C12" t="n">
         <v>9376</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6</v>
+        <v>25.28</v>
       </c>
       <c r="C13" t="n">
         <v>9376</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18.08</v>
+        <v>11.2</v>
       </c>
       <c r="C14" t="n">
         <v>12501</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.56</v>
+        <v>13.36</v>
       </c>
       <c r="C15" t="n">
         <v>12501</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20.72</v>
+        <v>30.56</v>
       </c>
       <c r="C16" t="n">
         <v>12501</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.8</v>
+        <v>32.8</v>
       </c>
       <c r="C17" t="n">
         <v>12501</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30.08</v>
+        <v>22.64</v>
       </c>
       <c r="C18" t="n">
         <v>12501</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.72</v>
+        <v>21.76</v>
       </c>
       <c r="C19" t="n">
         <v>15626</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>32.56</v>
+        <v>36.48</v>
       </c>
       <c r="C20" t="n">
         <v>15626</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>41.28</v>
+        <v>39.6</v>
       </c>
       <c r="C21" t="n">
         <v>15626</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.88</v>
+        <v>41.2</v>
       </c>
       <c r="C22" t="n">
         <v>15626</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.8</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
         <v>15626</v>
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>31.04</v>
+        <v>41.2</v>
       </c>
       <c r="C24" t="n">
-        <v>18751</v>
+        <v>15626</v>
       </c>
     </row>
     <row r="25">
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>36.56</v>
+        <v>42.96</v>
       </c>
       <c r="C25" t="n">
         <v>18751</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.8</v>
+        <v>41.04</v>
       </c>
       <c r="C26" t="n">
         <v>18751</v>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>36.96</v>
+        <v>40.64</v>
       </c>
       <c r="C27" t="n">
         <v>18751</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>35.6</v>
+        <v>42.48</v>
       </c>
       <c r="C28" t="n">
         <v>18751</v>
@@ -747,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.48</v>
+        <v>44.8</v>
       </c>
       <c r="C29" t="n">
         <v>18751</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.64</v>
+        <v>43.44</v>
       </c>
       <c r="C30" t="n">
         <v>21876</v>
@@ -769,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>44.72</v>
+        <v>46.24</v>
       </c>
       <c r="C31" t="n">
         <v>21876</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>43.04</v>
+        <v>46.24</v>
       </c>
       <c r="C32" t="n">
         <v>21876</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>46.4</v>
+        <v>48.16</v>
       </c>
       <c r="C33" t="n">
         <v>21876</v>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>44.72</v>
+        <v>48.24</v>
       </c>
       <c r="C34" t="n">
         <v>21876</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>47.28</v>
+        <v>49.12</v>
       </c>
       <c r="C35" t="n">
         <v>25001</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>47.28</v>
+        <v>47.52</v>
       </c>
       <c r="C36" t="n">
         <v>25001</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>48.32</v>
+        <v>49.04</v>
       </c>
       <c r="C37" t="n">
         <v>25001</v>
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>48.08</v>
+        <v>49.84</v>
       </c>
       <c r="C38" t="n">
         <v>25001</v>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.64</v>
+        <v>37.84</v>
       </c>
       <c r="C39" t="n">
         <v>28126</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>41.44</v>
+        <v>42.64</v>
       </c>
       <c r="C40" t="n">
         <v>28126</v>
@@ -879,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>45.84</v>
+        <v>46.08</v>
       </c>
       <c r="C41" t="n">
         <v>28126</v>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>47.04</v>
+        <v>48.8</v>
       </c>
       <c r="C42" t="n">
         <v>28126</v>
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41.84</v>
+        <v>44.72</v>
       </c>
       <c r="C43" t="n">
         <v>28126</v>
@@ -912,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42.24</v>
+        <v>47.2</v>
       </c>
       <c r="C44" t="n">
         <v>28126</v>
@@ -923,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>45.6</v>
+        <v>48.24</v>
       </c>
       <c r="C45" t="n">
         <v>31251</v>
@@ -934,7 +934,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>46.16</v>
+        <v>46.24</v>
       </c>
       <c r="C46" t="n">
         <v>31251</v>
@@ -945,7 +945,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>45.2</v>
+        <v>45.76</v>
       </c>
       <c r="C47" t="n">
         <v>31251</v>
@@ -956,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>45.2</v>
+        <v>46</v>
       </c>
       <c r="C48" t="n">
         <v>31251</v>
@@ -967,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>46.88</v>
+        <v>47.2</v>
       </c>
       <c r="C49" t="n">
         <v>31251</v>
@@ -978,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>46.8</v>
+        <v>447.76</v>
       </c>
       <c r="C50" t="n">
         <v>34376</v>
@@ -989,10 +989,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>47.52</v>
+        <v>37.84</v>
       </c>
       <c r="C51" t="n">
-        <v>34376</v>
+        <v>40626</v>
       </c>
     </row>
     <row r="52">
@@ -1000,10 +1000,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>348.8</v>
+        <v>43.52</v>
       </c>
       <c r="C52" t="n">
-        <v>34376</v>
+        <v>40626</v>
       </c>
     </row>
     <row r="53">
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.64</v>
+        <v>46.08</v>
       </c>
       <c r="C53" t="n">
         <v>40626</v>
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>42.32</v>
+        <v>48.8</v>
       </c>
       <c r="C54" t="n">
         <v>40626</v>
@@ -1033,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>45.84</v>
+        <v>44.72</v>
       </c>
       <c r="C55" t="n">
         <v>40626</v>
@@ -1044,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>49.52</v>
+        <v>47.2</v>
       </c>
       <c r="C56" t="n">
         <v>40626</v>
@@ -1055,10 +1055,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>42.64</v>
+        <v>48.24</v>
       </c>
       <c r="C57" t="n">
-        <v>40626</v>
+        <v>43751</v>
       </c>
     </row>
     <row r="58">
@@ -1066,10 +1066,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>43.2</v>
+        <v>46.24</v>
       </c>
       <c r="C58" t="n">
-        <v>40626</v>
+        <v>43751</v>
       </c>
     </row>
     <row r="59">
@@ -1077,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>45.6</v>
+        <v>45.76</v>
       </c>
       <c r="C59" t="n">
         <v>43751</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>46.16</v>
+        <v>46</v>
       </c>
       <c r="C60" t="n">
         <v>43751</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>46.16</v>
+        <v>47.2</v>
       </c>
       <c r="C61" t="n">
         <v>43751</v>
@@ -1110,10 +1110,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>45.2</v>
+        <v>447.76</v>
       </c>
       <c r="C62" t="n">
-        <v>43751</v>
+        <v>46876</v>
       </c>
     </row>
     <row r="63">
@@ -1121,10 +1121,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>46.88</v>
+        <v>37.84</v>
       </c>
       <c r="C63" t="n">
-        <v>43751</v>
+        <v>53126</v>
       </c>
     </row>
     <row r="64">
@@ -1132,10 +1132,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>46.8</v>
+        <v>43.52</v>
       </c>
       <c r="C64" t="n">
-        <v>46876</v>
+        <v>53126</v>
       </c>
     </row>
     <row r="65">
@@ -1143,10 +1143,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>47.52</v>
+        <v>46.08</v>
       </c>
       <c r="C65" t="n">
-        <v>46876</v>
+        <v>53126</v>
       </c>
     </row>
     <row r="66">
@@ -1154,10 +1154,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>348.8</v>
+        <v>48.8</v>
       </c>
       <c r="C66" t="n">
-        <v>46876</v>
+        <v>53126</v>
       </c>
     </row>
     <row r="67">
@@ -1165,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>34.64</v>
+        <v>44.72</v>
       </c>
       <c r="C67" t="n">
         <v>53126</v>
@@ -1176,7 +1176,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>42.32</v>
+        <v>47.2</v>
       </c>
       <c r="C68" t="n">
         <v>53126</v>
@@ -1187,10 +1187,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>45.84</v>
+        <v>48.24</v>
       </c>
       <c r="C69" t="n">
-        <v>53126</v>
+        <v>56251</v>
       </c>
     </row>
     <row r="70">
@@ -1198,10 +1198,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>49.52</v>
+        <v>46.24</v>
       </c>
       <c r="C70" t="n">
-        <v>53126</v>
+        <v>56251</v>
       </c>
     </row>
     <row r="71">
@@ -1209,10 +1209,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>42.64</v>
+        <v>45.76</v>
       </c>
       <c r="C71" t="n">
-        <v>53126</v>
+        <v>56251</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>43.2</v>
+        <v>46</v>
       </c>
       <c r="C72" t="n">
-        <v>53126</v>
+        <v>56251</v>
       </c>
     </row>
     <row r="73">
@@ -1231,7 +1231,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>45.6</v>
+        <v>47.2</v>
       </c>
       <c r="C73" t="n">
         <v>56251</v>
@@ -1242,10 +1242,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>46.16</v>
+        <v>447.76</v>
       </c>
       <c r="C74" t="n">
-        <v>56251</v>
+        <v>59376</v>
       </c>
     </row>
     <row r="75">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>46.16</v>
+        <v>37.84</v>
       </c>
       <c r="C75" t="n">
-        <v>56251</v>
+        <v>65626</v>
       </c>
     </row>
     <row r="76">
@@ -1264,10 +1264,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>45.2</v>
+        <v>43.52</v>
       </c>
       <c r="C76" t="n">
-        <v>56251</v>
+        <v>65626</v>
       </c>
     </row>
     <row r="77">
@@ -1275,10 +1275,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>46.88</v>
+        <v>46.08</v>
       </c>
       <c r="C77" t="n">
-        <v>56251</v>
+        <v>65626</v>
       </c>
     </row>
     <row r="78">
@@ -1286,10 +1286,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>46.8</v>
+        <v>48.8</v>
       </c>
       <c r="C78" t="n">
-        <v>59376</v>
+        <v>65626</v>
       </c>
     </row>
     <row r="79">
@@ -1297,10 +1297,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>47.52</v>
+        <v>44.72</v>
       </c>
       <c r="C79" t="n">
-        <v>59376</v>
+        <v>65626</v>
       </c>
     </row>
     <row r="80">
@@ -1308,10 +1308,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>348.8</v>
+        <v>47.2</v>
       </c>
       <c r="C80" t="n">
-        <v>59376</v>
+        <v>65626</v>
       </c>
     </row>
     <row r="81">
@@ -1319,10 +1319,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>34.64</v>
+        <v>48.24</v>
       </c>
       <c r="C81" t="n">
-        <v>65626</v>
+        <v>68751</v>
       </c>
     </row>
     <row r="82">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>42.32</v>
+        <v>46.24</v>
       </c>
       <c r="C82" t="n">
-        <v>65626</v>
+        <v>68751</v>
       </c>
     </row>
     <row r="83">
@@ -1341,10 +1341,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>45.84</v>
+        <v>45.76</v>
       </c>
       <c r="C83" t="n">
-        <v>65626</v>
+        <v>68751</v>
       </c>
     </row>
     <row r="84">
@@ -1352,10 +1352,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>49.52</v>
+        <v>46</v>
       </c>
       <c r="C84" t="n">
-        <v>65626</v>
+        <v>68751</v>
       </c>
     </row>
     <row r="85">
@@ -1363,10 +1363,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>42.64</v>
+        <v>47.2</v>
       </c>
       <c r="C85" t="n">
-        <v>65626</v>
+        <v>68751</v>
       </c>
     </row>
     <row r="86">
@@ -1374,10 +1374,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>43.2</v>
+        <v>447.76</v>
       </c>
       <c r="C86" t="n">
-        <v>65626</v>
+        <v>71876</v>
       </c>
     </row>
     <row r="87">
@@ -1385,10 +1385,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>45.6</v>
+        <v>37.84</v>
       </c>
       <c r="C87" t="n">
-        <v>68751</v>
+        <v>78126</v>
       </c>
     </row>
     <row r="88">
@@ -1396,10 +1396,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>46.16</v>
+        <v>43.52</v>
       </c>
       <c r="C88" t="n">
-        <v>68751</v>
+        <v>78126</v>
       </c>
     </row>
     <row r="89">
@@ -1407,10 +1407,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>46.16</v>
+        <v>46.08</v>
       </c>
       <c r="C89" t="n">
-        <v>68751</v>
+        <v>78126</v>
       </c>
     </row>
     <row r="90">
@@ -1418,10 +1418,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>45.2</v>
+        <v>48.8</v>
       </c>
       <c r="C90" t="n">
-        <v>68751</v>
+        <v>78126</v>
       </c>
     </row>
     <row r="91">
@@ -1429,10 +1429,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>46.88</v>
+        <v>44.72</v>
       </c>
       <c r="C91" t="n">
-        <v>68751</v>
+        <v>78126</v>
       </c>
     </row>
     <row r="92">
@@ -1440,10 +1440,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>46.8</v>
+        <v>47.2</v>
       </c>
       <c r="C92" t="n">
-        <v>71876</v>
+        <v>78126</v>
       </c>
     </row>
     <row r="93">
@@ -1451,10 +1451,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>47.52</v>
+        <v>48.24</v>
       </c>
       <c r="C93" t="n">
-        <v>71876</v>
+        <v>81251</v>
       </c>
     </row>
     <row r="94">
@@ -1462,10 +1462,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>348.8</v>
+        <v>46.24</v>
       </c>
       <c r="C94" t="n">
-        <v>71876</v>
+        <v>81251</v>
       </c>
     </row>
     <row r="95">
@@ -1473,10 +1473,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>34.64</v>
+        <v>45.76</v>
       </c>
       <c r="C95" t="n">
-        <v>78126</v>
+        <v>81251</v>
       </c>
     </row>
     <row r="96">
@@ -1484,10 +1484,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>42.32</v>
+        <v>46</v>
       </c>
       <c r="C96" t="n">
-        <v>78126</v>
+        <v>81251</v>
       </c>
     </row>
     <row r="97">
@@ -1495,10 +1495,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>45.84</v>
+        <v>47.2</v>
       </c>
       <c r="C97" t="n">
-        <v>78126</v>
+        <v>81251</v>
       </c>
     </row>
     <row r="98">
@@ -1506,10 +1506,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>49.52</v>
+        <v>447.76</v>
       </c>
       <c r="C98" t="n">
-        <v>78126</v>
+        <v>84376</v>
       </c>
     </row>
     <row r="99">
@@ -1517,10 +1517,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>42.64</v>
+        <v>37.84</v>
       </c>
       <c r="C99" t="n">
-        <v>78126</v>
+        <v>90626</v>
       </c>
     </row>
     <row r="100">
@@ -1528,10 +1528,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>43.2</v>
+        <v>43.52</v>
       </c>
       <c r="C100" t="n">
-        <v>78126</v>
+        <v>90626</v>
       </c>
     </row>
     <row r="101">
@@ -1539,10 +1539,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>45.6</v>
+        <v>46.08</v>
       </c>
       <c r="C101" t="n">
-        <v>81251</v>
+        <v>90626</v>
       </c>
     </row>
     <row r="102">
@@ -1550,10 +1550,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>46.16</v>
+        <v>48.8</v>
       </c>
       <c r="C102" t="n">
-        <v>81251</v>
+        <v>90626</v>
       </c>
     </row>
     <row r="103">
@@ -1561,10 +1561,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>46.16</v>
+        <v>44.72</v>
       </c>
       <c r="C103" t="n">
-        <v>81251</v>
+        <v>90626</v>
       </c>
     </row>
     <row r="104">
@@ -1572,10 +1572,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>45.2</v>
+        <v>47.2</v>
       </c>
       <c r="C104" t="n">
-        <v>81251</v>
+        <v>90626</v>
       </c>
     </row>
     <row r="105">
@@ -1583,10 +1583,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>46.88</v>
+        <v>48.24</v>
       </c>
       <c r="C105" t="n">
-        <v>81251</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="106">
@@ -1594,10 +1594,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>46.8</v>
+        <v>46.24</v>
       </c>
       <c r="C106" t="n">
-        <v>84376</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="107">
@@ -1605,10 +1605,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>47.52</v>
+        <v>45.76</v>
       </c>
       <c r="C107" t="n">
-        <v>84376</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="108">
@@ -1616,10 +1616,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>348.8</v>
+        <v>46</v>
       </c>
       <c r="C108" t="n">
-        <v>84376</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="109">
@@ -1627,10 +1627,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>34.64</v>
+        <v>47.2</v>
       </c>
       <c r="C109" t="n">
-        <v>90626</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="110">
@@ -1638,10 +1638,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>42.32</v>
+        <v>447.76</v>
       </c>
       <c r="C110" t="n">
-        <v>90626</v>
+        <v>96876</v>
       </c>
     </row>
     <row r="111">
@@ -1649,10 +1649,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>45.84</v>
+        <v>37.84</v>
       </c>
       <c r="C111" t="n">
-        <v>90626</v>
+        <v>103126</v>
       </c>
     </row>
     <row r="112">
@@ -1660,10 +1660,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>49.52</v>
+        <v>43.52</v>
       </c>
       <c r="C112" t="n">
-        <v>90626</v>
+        <v>103126</v>
       </c>
     </row>
     <row r="113">
@@ -1671,10 +1671,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>42.64</v>
+        <v>46.08</v>
       </c>
       <c r="C113" t="n">
-        <v>90626</v>
+        <v>103126</v>
       </c>
     </row>
     <row r="114">
@@ -1682,10 +1682,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>43.2</v>
+        <v>48.8</v>
       </c>
       <c r="C114" t="n">
-        <v>90626</v>
+        <v>103126</v>
       </c>
     </row>
     <row r="115">
@@ -1693,10 +1693,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>45.6</v>
+        <v>44.72</v>
       </c>
       <c r="C115" t="n">
-        <v>93751</v>
+        <v>103126</v>
       </c>
     </row>
     <row r="116">
@@ -1704,10 +1704,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>46.16</v>
+        <v>47.2</v>
       </c>
       <c r="C116" t="n">
-        <v>93751</v>
+        <v>103126</v>
       </c>
     </row>
     <row r="117">
@@ -1715,10 +1715,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>46.16</v>
+        <v>48.24</v>
       </c>
       <c r="C117" t="n">
-        <v>93751</v>
+        <v>106251</v>
       </c>
     </row>
     <row r="118">
@@ -1726,10 +1726,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>45.2</v>
+        <v>46.24</v>
       </c>
       <c r="C118" t="n">
-        <v>93751</v>
+        <v>106251</v>
       </c>
     </row>
     <row r="119">
@@ -1737,10 +1737,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>46.88</v>
+        <v>45.76</v>
       </c>
       <c r="C119" t="n">
-        <v>93751</v>
+        <v>106251</v>
       </c>
     </row>
     <row r="120">
@@ -1748,10 +1748,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>46.8</v>
+        <v>46</v>
       </c>
       <c r="C120" t="n">
-        <v>96876</v>
+        <v>106251</v>
       </c>
     </row>
     <row r="121">
@@ -1759,10 +1759,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>47.52</v>
+        <v>47.2</v>
       </c>
       <c r="C121" t="n">
-        <v>96876</v>
+        <v>106251</v>
       </c>
     </row>
     <row r="122">
@@ -1770,10 +1770,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>348.8</v>
+        <v>447.76</v>
       </c>
       <c r="C122" t="n">
-        <v>96876</v>
+        <v>109376</v>
       </c>
     </row>
     <row r="123">
@@ -1781,10 +1781,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>34.64</v>
+        <v>37.84</v>
       </c>
       <c r="C123" t="n">
-        <v>103126</v>
+        <v>115626</v>
       </c>
     </row>
     <row r="124">
@@ -1792,10 +1792,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>42.32</v>
+        <v>43.52</v>
       </c>
       <c r="C124" t="n">
-        <v>103126</v>
+        <v>115626</v>
       </c>
     </row>
     <row r="125">
@@ -1803,10 +1803,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>45.84</v>
+        <v>46.08</v>
       </c>
       <c r="C125" t="n">
-        <v>103126</v>
+        <v>115626</v>
       </c>
     </row>
     <row r="126">
@@ -1814,10 +1814,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>49.52</v>
+        <v>48.8</v>
       </c>
       <c r="C126" t="n">
-        <v>103126</v>
+        <v>115626</v>
       </c>
     </row>
     <row r="127">
@@ -1825,10 +1825,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>42.64</v>
+        <v>44.72</v>
       </c>
       <c r="C127" t="n">
-        <v>103126</v>
+        <v>115626</v>
       </c>
     </row>
     <row r="128">
@@ -1836,10 +1836,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>43.2</v>
+        <v>47.2</v>
       </c>
       <c r="C128" t="n">
-        <v>103126</v>
+        <v>115626</v>
       </c>
     </row>
     <row r="129">
@@ -1847,10 +1847,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>45.6</v>
+        <v>48.24</v>
       </c>
       <c r="C129" t="n">
-        <v>106251</v>
+        <v>118751</v>
       </c>
     </row>
     <row r="130">
@@ -1858,10 +1858,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>46.16</v>
+        <v>46.24</v>
       </c>
       <c r="C130" t="n">
-        <v>106251</v>
+        <v>118751</v>
       </c>
     </row>
     <row r="131">
@@ -1869,10 +1869,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>46.16</v>
+        <v>45.76</v>
       </c>
       <c r="C131" t="n">
-        <v>106251</v>
+        <v>118751</v>
       </c>
     </row>
     <row r="132">
@@ -1880,10 +1880,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>45.2</v>
+        <v>46</v>
       </c>
       <c r="C132" t="n">
-        <v>106251</v>
+        <v>118751</v>
       </c>
     </row>
     <row r="133">
@@ -1891,10 +1891,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>46.88</v>
+        <v>47.2</v>
       </c>
       <c r="C133" t="n">
-        <v>106251</v>
+        <v>118751</v>
       </c>
     </row>
     <row r="134">
@@ -1902,185 +1902,9 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>46.8</v>
+        <v>209.52</v>
       </c>
       <c r="C134" t="n">
-        <v>109376</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>47.52</v>
-      </c>
-      <c r="C135" t="n">
-        <v>109376</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>348.8</v>
-      </c>
-      <c r="C136" t="n">
-        <v>109376</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>34.64</v>
-      </c>
-      <c r="C137" t="n">
-        <v>115626</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>42.32</v>
-      </c>
-      <c r="C138" t="n">
-        <v>115626</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>45.84</v>
-      </c>
-      <c r="C139" t="n">
-        <v>115626</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>49.52</v>
-      </c>
-      <c r="C140" t="n">
-        <v>115626</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>42.64</v>
-      </c>
-      <c r="C141" t="n">
-        <v>115626</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>115626</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="C143" t="n">
-        <v>118751</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>46.16</v>
-      </c>
-      <c r="C144" t="n">
-        <v>118751</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>46.16</v>
-      </c>
-      <c r="C145" t="n">
-        <v>118751</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="C146" t="n">
-        <v>118751</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>46.88</v>
-      </c>
-      <c r="C147" t="n">
-        <v>118751</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>121876</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>47.52</v>
-      </c>
-      <c r="C149" t="n">
-        <v>121876</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>110.56</v>
-      </c>
-      <c r="C150" t="n">
         <v>121876</v>
       </c>
     </row>
